--- a/biology/Zoologie/Gustav_Adolf_Closs/Gustav_Adolf_Closs.xlsx
+++ b/biology/Zoologie/Gustav_Adolf_Closs/Gustav_Adolf_Closs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Adolf Carl Closs, également connu sous les noms de Closs, A. Closs, A.G., Closz ou Adolf Gustav (né le 6 mai 1864 à Stuttgart, Wurtemberg et mort le 3 septembre 1938 à Berlin, Troisième Reich), est un peintre, illustrateur et héraldiste allemand ainsi qu'un entomologiste.
 </t>
@@ -513,17 +525,92 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines, famille et formation
-Il est le fils de l'artiste-graveur sur bois, Adolf Closs (1840-1894), dont le frère jumeau est le peintre de paysages, Gustav Paul Closs. Gustav Adolf Carl Closs commence sa formation dans les écoles publiques de Stuttgart, où il obtient son diplôme en 1882. Il s'inscrit ensuite à l'Université de Tübingen, où il étudie le droit. Il fréquente également brièvement l'Université de Fribourg. Cependant, en 1886, il abandonne ses études sans les avoir terminées.
+          <t>Origines, famille et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de l'artiste-graveur sur bois, Adolf Closs (1840-1894), dont le frère jumeau est le peintre de paysages, Gustav Paul Closs. Gustav Adolf Carl Closs commence sa formation dans les écoles publiques de Stuttgart, où il obtient son diplôme en 1882. Il s'inscrit ensuite à l'Université de Tübingen, où il étudie le droit. Il fréquente également brièvement l'Université de Fribourg. Cependant, en 1886, il abandonne ses études sans les avoir terminées.
 Ayant décidé de changer de carrière, il est admis à l'Académie des beaux-arts de Karlsruhe, où il étudie avec Ernst Schurth (1848-1910). Après un an, il passe à l'Académie des beaux-arts de Munich, où il devient l'élève de Wilhelm von Diez. Plutôt conservateur, il a apparemment refusé de rejoindre la Sécession de Munich. C'est là-bas qu'il commence à fournir des illustrations pour des périodiques locaux, dont les premières sont une série de dessins pour Der Feuerreiter d'Eduard Mörike, publié dans Die Gartenlaube.
 Après avoir quitté l'Académie en 1891, il retourne à Stuttgart mais continue à fournir des illustrations pour le journal satirique populaire Fliegende Blätter pendant vingt ans. En 1898, il reçoit un prix pour ses conceptions de cartes de collection de la part de la société de chocolat Stollwerck. En 1907, il épouse Martha Pauline Karoline Pfaff, la fille d'un fabricant d'instruments de musique, treize ans plus jeune que lui. Le couple n'a pas d'enfants.
-Travaux de peintre et d'illustrateur
-Parmi ses illustrations de livres, on peut citer celles de Lichtenstein de Wilhelm Hauff, Die Sklavenkaravane de Karl May et Schillers Heimatjahre de Hermann Kurz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gustav_Adolf_Closs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gustav_Adolf_Closs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travaux de peintre et d'illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses illustrations de livres, on peut citer celles de Lichtenstein de Wilhelm Hauff, Die Sklavenkaravane de Karl May et Schillers Heimatjahre de Hermann Kurz.
 Bien que le travail d'illustration fournisse la majeure partie de ses revenus, Closs se considère principalement comme un peintre. Parmi ses œuvres majeures figurent les peintures murales du château de Schöckingen à Ditzingen et du château de Rapperswil, qui lui sont commandées grâce à son amitié avec Friedrich von Gaisberg-Schöckingen (1857-1932). Il travaille aussi au château de Hellenstein. Plusieurs de ses œuvres similaires ont été détruites pendant la Seconde Guerre mondiale. L'une de ses œuvres les plus célèbres est une scène de la vie de Roland, créée à la demande de l'empereur Guillaume II. Il réalise également des peintures pour le roi Carol Ier de Roumanie et conçoit des vitraux, réalisés par Franz Xaver Zettler pour le Kösener Senioren-Convents-Verband.
 Son ami Gaisberg-Schöckingen l'introduit à l'art de l'héraldique. De 1918 à 1934, il est membre du Verein für Heraldik, Genealogie und verwandte Wissenschaften zu Berlin, où il occupe également le poste de vice-président. Il édite les armoiries pour le Genealogisches Handbuch bürgerlicher Familien.
 Après la prise de pouvoir des nazis, il est employé en tant qu'expert héraldique par l'organisation nazie Deutscher Gemeindetag.
-Travaux entomologiques
-Closs est un entomologiste amateur passionné, spécialisé dans les papillons sphinx (sphingidae). Il a écrit :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gustav_Adolf_Closs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gustav_Adolf_Closs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux entomologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Closs est un entomologiste amateur passionné, spécialisé dans les papillons sphinx (sphingidae). Il a écrit :
 Closs, G.A., Zwei neue Aberrationen aus meiner Sphingidensammlung, in Internationale Zeitschrift Entomologische, vol. 6, Guben, Internationaler Verein Entomologischer IV, 31 août 1912, pp. 384 (153).
 Closs, G.A. (1910). Zwei neue Sphingidenformen, in Berliner entomologische Zeitschrift 54 : 224.
 Closs, G.A. (1911). Zwei neue Sphingidenformen in meiner Sammlung, in Internationale entomologische Zeitschrift 5 : 199.
@@ -533,37 +620,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gustav_Adolf_Closs</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gustav_Adolf_Closs</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(in German) Gustav Adolf Closs. Dans: Allgemeines Künstlerlexikon. Die Bildenden Künstler aller Zeiten und Völker (AKL). Band 19, Saur, München u. a. 1998,  (ISBN 3-598-22759-0), p.588
 (in German) Gustav Adolf Closs. Dans: Ulrich Thieme, Felix Becker (editors): Allgemeines Lexikon der Bildenden Künstler von der Antike bis zur Gegenwart. Band 7, E. A. Seemann, Leipzig 1912, p. 114.
 Gustav Adolf Closs. Dans: Hans Vollmer: Allgemeines Lexikon der bildenden Künstler des XX. Jahrhunderts. Vol.5 E. A. Seemann, Leipzig 1961, pg.387
 [Horn, W.] 1938: [Closs, A. G.] Arbeiten über morphologische und taxonomische Entomologie aus Berlin-Dahlem, Berlin 5 (4), p. 352
-Gaedeck R, Groll EK (editors) (2010). Biografien der Entomologen der Welt: Datenbank. Version 4.15. Senckenberg Deutsches Entomologisches Institut. [1] (in German).
+Gaedeck R, Groll EK (editors) (2010). Biografien der Entomologen der Welt: Datenbank. Version 4.15. Senckenberg Deutsches Entomologisches Institut.  (in German).
 "Les peintures et dessins d'Adolf Closs au Musée zoologique de Berlin" (en allemand) dans Mitteilungen aus dem Zoologischen Museum in Berlin, volume 38, par Werner Jacobsen. Cet article se concentre sur les œuvres d'art d'Adolf Closs présentes dans le Musée zoologique de Berlin, qui comprennent de nombreuses illustrations d'animaux.
 "Catalogue de l'exposition d'aquarelles et de peintures à l'huile d'Adolf Closs" (en allemand) dans Die Gartenlaube, volume 50, par Adolf Closs. Il s'agit d'un catalogue d'une exposition des aquarelles et des peintures à l'huile d'Adolf Closs, qui comprend des descriptions de chaque pièce.
 "Adolf Gustav Carl Closs : une vie consacrée à l'entomologie" (en allemand) dans Entomologische Zeitschrift, volume 109, par Klaus Wittstadt. Cet article donne un compte rendu détaillé de la vie et du travail d'Adolf Closs en tant qu'entomologiste, en mettant l'accent sur sa recherche sur les papillons de nuit et les papillons.
